--- a/Ligas/Liga_mexico_2025.xlsx
+++ b/Ligas/Liga_mexico_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1208,6 +1208,503 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Necaxa</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Club Queretaro</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1379491</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>73%</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>27%</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Atletico San Luis</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1379492</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>43%</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Mazatlán</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1379493</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Tigres UANL</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>FC Juarez</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1379495</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>64%</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>36%</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Leon</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Guadalajara Chivas</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1379494</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>33%</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Atlas</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Cruz Azul</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1379496</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" t="n">
+        <v>11</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>28%</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>U.N.A.M. - Pumas</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Pachuca</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1379497</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>37%</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Ligas/Liga_mexico_2025.xlsx
+++ b/Ligas/Liga_mexico_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raque\Desktop\ligas_datas\rockongo_web\Ligas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2CB48B-DC5F-487B-8355-12E29EBA95A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5291074D-A764-4D6A-9462-5DF539B1665E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="55">
   <si>
     <t>Fecha</t>
   </si>
@@ -79,18 +79,6 @@
     <t>Resultado</t>
   </si>
   <si>
-    <t>Posesión Local (%)</t>
-  </si>
-  <si>
-    <t>Posesión Visita (%)</t>
-  </si>
-  <si>
-    <t>fuente_tiempos</t>
-  </si>
-  <si>
-    <t>estado_datos</t>
-  </si>
-  <si>
     <t>2025-07-12</t>
   </si>
   <si>
@@ -188,6 +176,15 @@
   </si>
   <si>
     <t>2025-08-12</t>
+  </si>
+  <si>
+    <t>2025-08-16</t>
+  </si>
+  <si>
+    <t>2025-08-17</t>
+  </si>
+  <si>
+    <t>2025-08-18</t>
   </si>
 </sst>
 </file>
@@ -550,15 +547,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W36"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,28 +617,16 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="C2" t="s">
         <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -678,25 +667,25 @@
       <c r="P2">
         <v>2</v>
       </c>
+      <c r="Q2">
+        <v>67</v>
+      </c>
+      <c r="R2">
+        <v>33</v>
+      </c>
       <c r="S2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2">
-        <v>67</v>
-      </c>
-      <c r="U2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -737,25 +726,25 @@
       <c r="P3">
         <v>0</v>
       </c>
+      <c r="Q3">
+        <v>55</v>
+      </c>
+      <c r="R3">
+        <v>45</v>
+      </c>
       <c r="S3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3">
-        <v>55</v>
-      </c>
-      <c r="U3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -796,25 +785,25 @@
       <c r="P4">
         <v>0</v>
       </c>
+      <c r="Q4">
+        <v>60</v>
+      </c>
+      <c r="R4">
+        <v>40</v>
+      </c>
       <c r="S4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T4">
-        <v>60</v>
-      </c>
-      <c r="U4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -855,25 +844,25 @@
       <c r="P5">
         <v>0</v>
       </c>
+      <c r="Q5">
+        <v>55</v>
+      </c>
+      <c r="R5">
+        <v>45</v>
+      </c>
       <c r="S5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
         <v>32</v>
       </c>
-      <c r="T5">
-        <v>55</v>
-      </c>
-      <c r="U5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
         <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -914,25 +903,25 @@
       <c r="P6">
         <v>0</v>
       </c>
+      <c r="Q6">
+        <v>45</v>
+      </c>
+      <c r="R6">
+        <v>55</v>
+      </c>
       <c r="S6" t="s">
-        <v>32</v>
-      </c>
-      <c r="T6">
-        <v>45</v>
-      </c>
-      <c r="U6">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -973,25 +962,25 @@
       <c r="P7">
         <v>0</v>
       </c>
+      <c r="Q7">
+        <v>74</v>
+      </c>
+      <c r="R7">
+        <v>26</v>
+      </c>
       <c r="S7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="T7">
-        <v>74</v>
-      </c>
-      <c r="U7">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -1032,25 +1021,25 @@
       <c r="P8">
         <v>0</v>
       </c>
+      <c r="Q8">
+        <v>41</v>
+      </c>
+      <c r="R8">
+        <v>59</v>
+      </c>
       <c r="S8" t="s">
-        <v>32</v>
-      </c>
-      <c r="T8">
-        <v>41</v>
-      </c>
-      <c r="U8">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1091,25 +1080,25 @@
       <c r="P9">
         <v>1</v>
       </c>
+      <c r="Q9">
+        <v>47</v>
+      </c>
+      <c r="R9">
+        <v>53</v>
+      </c>
       <c r="S9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
-      </c>
-      <c r="T9">
-        <v>47</v>
-      </c>
-      <c r="U9">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1150,25 +1139,25 @@
       <c r="P10">
         <v>1</v>
       </c>
+      <c r="Q10">
+        <v>65</v>
+      </c>
+      <c r="R10">
+        <v>35</v>
+      </c>
       <c r="S10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="T10">
-        <v>65</v>
-      </c>
-      <c r="U10">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1186,13 +1175,13 @@
         <v>4</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1209,25 +1198,25 @@
       <c r="P11">
         <v>3</v>
       </c>
+      <c r="Q11">
+        <v>32</v>
+      </c>
+      <c r="R11">
+        <v>68</v>
+      </c>
       <c r="S11" t="s">
-        <v>26</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -1268,25 +1257,25 @@
       <c r="P12">
         <v>0</v>
       </c>
+      <c r="Q12">
+        <v>73</v>
+      </c>
+      <c r="R12">
+        <v>27</v>
+      </c>
       <c r="S12" t="s">
-        <v>32</v>
-      </c>
-      <c r="T12">
-        <v>73</v>
-      </c>
-      <c r="U12">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1327,25 +1316,25 @@
       <c r="P13">
         <v>0</v>
       </c>
+      <c r="Q13">
+        <v>43</v>
+      </c>
+      <c r="R13">
+        <v>57</v>
+      </c>
       <c r="S13" t="s">
-        <v>26</v>
-      </c>
-      <c r="T13">
-        <v>43</v>
-      </c>
-      <c r="U13">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1386,25 +1375,25 @@
       <c r="P14">
         <v>1</v>
       </c>
+      <c r="Q14">
+        <v>42</v>
+      </c>
+      <c r="R14">
+        <v>58</v>
+      </c>
       <c r="S14" t="s">
-        <v>32</v>
-      </c>
-      <c r="T14">
-        <v>42</v>
-      </c>
-      <c r="U14">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1445,25 +1434,25 @@
       <c r="P15">
         <v>0</v>
       </c>
+      <c r="Q15">
+        <v>65</v>
+      </c>
+      <c r="R15">
+        <v>35</v>
+      </c>
       <c r="S15" t="s">
-        <v>32</v>
-      </c>
-      <c r="T15">
-        <v>65</v>
-      </c>
-      <c r="U15">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1504,25 +1493,25 @@
       <c r="P16">
         <v>0</v>
       </c>
+      <c r="Q16">
+        <v>34</v>
+      </c>
+      <c r="R16">
+        <v>66</v>
+      </c>
       <c r="S16" t="s">
-        <v>32</v>
-      </c>
-      <c r="T16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
         <v>34</v>
-      </c>
-      <c r="U16">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>38</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1563,25 +1552,25 @@
       <c r="P17">
         <v>3</v>
       </c>
+      <c r="Q17">
+        <v>29</v>
+      </c>
+      <c r="R17">
+        <v>71</v>
+      </c>
       <c r="S17" t="s">
-        <v>29</v>
-      </c>
-      <c r="T17">
-        <v>29</v>
-      </c>
-      <c r="U17">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1622,25 +1611,25 @@
       <c r="P18">
         <v>1</v>
       </c>
+      <c r="Q18">
+        <v>63</v>
+      </c>
+      <c r="R18">
+        <v>37</v>
+      </c>
       <c r="S18" t="s">
-        <v>26</v>
-      </c>
-      <c r="T18">
-        <v>63</v>
-      </c>
-      <c r="U18">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1681,25 +1670,25 @@
       <c r="P19">
         <v>1</v>
       </c>
+      <c r="Q19">
+        <v>56</v>
+      </c>
+      <c r="R19">
+        <v>44</v>
+      </c>
       <c r="S19" t="s">
-        <v>26</v>
-      </c>
-      <c r="T19">
-        <v>56</v>
-      </c>
-      <c r="U19">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1740,25 +1729,25 @@
       <c r="P20">
         <v>0</v>
       </c>
+      <c r="Q20">
+        <v>59</v>
+      </c>
+      <c r="R20">
+        <v>41</v>
+      </c>
       <c r="S20" t="s">
-        <v>32</v>
-      </c>
-      <c r="T20">
-        <v>59</v>
-      </c>
-      <c r="U20">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1799,25 +1788,25 @@
       <c r="P21">
         <v>1</v>
       </c>
+      <c r="Q21">
+        <v>37</v>
+      </c>
+      <c r="R21">
+        <v>63</v>
+      </c>
       <c r="S21" t="s">
-        <v>29</v>
-      </c>
-      <c r="T21">
-        <v>37</v>
-      </c>
-      <c r="U21">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1858,25 +1847,25 @@
       <c r="P22">
         <v>0</v>
       </c>
+      <c r="Q22">
+        <v>65</v>
+      </c>
+      <c r="R22">
+        <v>35</v>
+      </c>
       <c r="S22" t="s">
-        <v>32</v>
-      </c>
-      <c r="T22">
-        <v>65</v>
-      </c>
-      <c r="U22">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D23">
         <v>4</v>
@@ -1917,25 +1906,25 @@
       <c r="P23">
         <v>3</v>
       </c>
+      <c r="Q23">
+        <v>55</v>
+      </c>
+      <c r="R23">
+        <v>45</v>
+      </c>
       <c r="S23" t="s">
-        <v>32</v>
-      </c>
-      <c r="T23">
-        <v>55</v>
-      </c>
-      <c r="U23">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -1976,25 +1965,25 @@
       <c r="P24">
         <v>1</v>
       </c>
+      <c r="Q24">
+        <v>55</v>
+      </c>
+      <c r="R24">
+        <v>45</v>
+      </c>
       <c r="S24" t="s">
-        <v>26</v>
-      </c>
-      <c r="T24">
-        <v>55</v>
-      </c>
-      <c r="U24">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -2035,25 +2024,25 @@
       <c r="P25">
         <v>0</v>
       </c>
+      <c r="Q25">
+        <v>71</v>
+      </c>
+      <c r="R25">
+        <v>29</v>
+      </c>
       <c r="S25" t="s">
-        <v>32</v>
-      </c>
-      <c r="T25">
-        <v>71</v>
-      </c>
-      <c r="U25">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -2094,25 +2083,25 @@
       <c r="P26">
         <v>1</v>
       </c>
+      <c r="Q26">
+        <v>61</v>
+      </c>
+      <c r="R26">
+        <v>39</v>
+      </c>
       <c r="S26" t="s">
-        <v>32</v>
-      </c>
-      <c r="T26">
-        <v>61</v>
-      </c>
-      <c r="U26">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2153,25 +2142,25 @@
       <c r="P27">
         <v>0</v>
       </c>
+      <c r="Q27">
+        <v>34</v>
+      </c>
+      <c r="R27">
+        <v>66</v>
+      </c>
       <c r="S27" t="s">
-        <v>29</v>
-      </c>
-      <c r="T27">
-        <v>34</v>
-      </c>
-      <c r="U27">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D28">
         <v>7</v>
@@ -2212,25 +2201,25 @@
       <c r="P28">
         <v>0</v>
       </c>
+      <c r="Q28">
+        <v>48</v>
+      </c>
+      <c r="R28">
+        <v>52</v>
+      </c>
       <c r="S28" t="s">
-        <v>32</v>
-      </c>
-      <c r="T28">
-        <v>48</v>
-      </c>
-      <c r="U28">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2271,25 +2260,25 @@
       <c r="P29">
         <v>0</v>
       </c>
+      <c r="Q29">
+        <v>76</v>
+      </c>
+      <c r="R29">
+        <v>24</v>
+      </c>
       <c r="S29" t="s">
-        <v>32</v>
-      </c>
-      <c r="T29">
-        <v>76</v>
-      </c>
-      <c r="U29">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -2330,25 +2319,25 @@
       <c r="P30">
         <v>1</v>
       </c>
+      <c r="Q30">
+        <v>56</v>
+      </c>
+      <c r="R30">
+        <v>44</v>
+      </c>
       <c r="S30" t="s">
-        <v>29</v>
-      </c>
-      <c r="T30">
-        <v>56</v>
-      </c>
-      <c r="U30">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2389,25 +2378,25 @@
       <c r="P31">
         <v>0</v>
       </c>
+      <c r="Q31">
+        <v>44</v>
+      </c>
+      <c r="R31">
+        <v>56</v>
+      </c>
       <c r="S31" t="s">
-        <v>26</v>
-      </c>
-      <c r="T31">
-        <v>44</v>
-      </c>
-      <c r="U31">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2448,25 +2437,25 @@
       <c r="P32">
         <v>1</v>
       </c>
+      <c r="Q32">
+        <v>66</v>
+      </c>
+      <c r="R32">
+        <v>34</v>
+      </c>
       <c r="S32" t="s">
-        <v>29</v>
-      </c>
-      <c r="T32">
-        <v>66</v>
-      </c>
-      <c r="U32">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2507,25 +2496,25 @@
       <c r="P33">
         <v>0</v>
       </c>
+      <c r="Q33">
+        <v>33</v>
+      </c>
+      <c r="R33">
+        <v>67</v>
+      </c>
       <c r="S33" t="s">
-        <v>32</v>
-      </c>
-      <c r="T33">
-        <v>33</v>
-      </c>
-      <c r="U33">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2566,25 +2555,25 @@
       <c r="P34">
         <v>1</v>
       </c>
+      <c r="Q34">
+        <v>53</v>
+      </c>
+      <c r="R34">
+        <v>47</v>
+      </c>
       <c r="S34" t="s">
-        <v>26</v>
-      </c>
-      <c r="T34">
-        <v>53</v>
-      </c>
-      <c r="U34">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2625,25 +2614,25 @@
       <c r="P35">
         <v>1</v>
       </c>
+      <c r="Q35">
+        <v>60</v>
+      </c>
+      <c r="R35">
+        <v>40</v>
+      </c>
       <c r="S35" t="s">
-        <v>26</v>
-      </c>
-      <c r="T35">
-        <v>60</v>
-      </c>
-      <c r="U35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" t="s">
-        <v>44</v>
-      </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2684,14 +2673,545 @@
       <c r="P36">
         <v>2</v>
       </c>
+      <c r="Q36">
+        <v>38</v>
+      </c>
+      <c r="R36">
+        <v>62</v>
+      </c>
       <c r="S36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1379516</v>
+      </c>
+      <c r="G37">
+        <v>8</v>
+      </c>
+      <c r="H37">
+        <v>6</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>57</v>
+      </c>
+      <c r="R37">
+        <v>43</v>
+      </c>
+      <c r="S37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1379517</v>
+      </c>
+      <c r="G38">
+        <v>6</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>4</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>53</v>
+      </c>
+      <c r="R38">
+        <v>47</v>
+      </c>
+      <c r="S38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>1379518</v>
+      </c>
+      <c r="G39">
+        <v>6</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>68</v>
+      </c>
+      <c r="R39">
+        <v>32</v>
+      </c>
+      <c r="S39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>1379521</v>
+      </c>
+      <c r="G40">
+        <v>7</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>2</v>
+      </c>
+      <c r="Q40">
+        <v>59</v>
+      </c>
+      <c r="R40">
+        <v>41</v>
+      </c>
+      <c r="S40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" t="s">
         <v>26</v>
       </c>
-      <c r="T36">
-        <v>38</v>
-      </c>
-      <c r="U36">
-        <v>62</v>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>1379520</v>
+      </c>
+      <c r="G41">
+        <v>11</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="J41">
+        <v>5</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>2</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>69</v>
+      </c>
+      <c r="R41">
+        <v>31</v>
+      </c>
+      <c r="S41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>1379522</v>
+      </c>
+      <c r="G42">
+        <v>12</v>
+      </c>
+      <c r="H42">
+        <v>4</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>2</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>64</v>
+      </c>
+      <c r="R42">
+        <v>36</v>
+      </c>
+      <c r="S42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1379519</v>
+      </c>
+      <c r="G43">
+        <v>5</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>5</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>71</v>
+      </c>
+      <c r="R43">
+        <v>29</v>
+      </c>
+      <c r="S43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <v>1379523</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>6</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>3</v>
+      </c>
+      <c r="P44">
+        <v>2</v>
+      </c>
+      <c r="Q44">
+        <v>53</v>
+      </c>
+      <c r="R44">
+        <v>47</v>
+      </c>
+      <c r="S44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>1379524</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <v>4</v>
+      </c>
+      <c r="I45">
+        <v>4</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>3</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>57</v>
+      </c>
+      <c r="R45">
+        <v>43</v>
+      </c>
+      <c r="S45" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
